--- a/ROM_test/Naca0012_transonic_Test_HROM/FOM_data.xlsx
+++ b/ROM_test/Naca0012_transonic_Test_HROM/FOM_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.423697748722982</v>
+        <v>1.311556812882253</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7399671533574472</v>
+        <v>0.7437173676422224</v>
       </c>
       <c r="D2" t="n">
         <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>3.24162722052198e-09</v>
+        <v>4.76826970168851e-11</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -503,16 +503,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.71</v>
+        <v>0.66</v>
       </c>
       <c r="I2" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J2" t="n">
-        <v>0.305182410024692</v>
+        <v>0.2867737769415311</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002771671983676644</v>
+        <v>0.002896901851834294</v>
       </c>
     </row>
     <row r="3">
@@ -522,16 +522,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.173697748722982</v>
+        <v>1.061556812882253</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7066338200241139</v>
+        <v>0.7103840343088891</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>5.514089451729872e-09</v>
+        <v>1.072448076019188e-09</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -540,16 +540,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.06</v>
+        <v>0.37</v>
       </c>
       <c r="I3" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2172627566335309</v>
+        <v>0.1986722505404188</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0003308484944063213</v>
+        <v>0.0003549198713802422</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.298697748722982</v>
+        <v>1.436556812882253</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7233004866907806</v>
+        <v>0.7270507009755557</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>8.376869648633782e-12</v>
+        <v>3.187154188410166e-12</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -577,16 +577,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.09</v>
+        <v>0.49</v>
       </c>
       <c r="I4" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2550624091988405</v>
+        <v>0.2887644227256952</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0008750704513450155</v>
+        <v>0.001580825492355515</v>
       </c>
     </row>
     <row r="5">
@@ -596,16 +596,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.048697748722982</v>
+        <v>1.186556812882253</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7455227089130029</v>
+        <v>0.7381618120866669</v>
       </c>
       <c r="D5" t="n">
         <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>3.153376301547275e-11</v>
+        <v>2.097232172752806e-11</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -614,16 +614,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.29</v>
+        <v>0.46</v>
       </c>
       <c r="I5" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2265843484588043</v>
+        <v>0.2489546343724028</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001694082469333101</v>
+        <v>0.001671531321048909</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.486197748722982</v>
+        <v>1.374056812882253</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7121893755796694</v>
+        <v>0.7048284787533334</v>
       </c>
       <c r="D6" t="n">
         <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>1.436141471877979e-08</v>
+        <v>3.000401175762016e-08</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -651,16 +651,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02</v>
+        <v>0.38</v>
       </c>
       <c r="I6" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J6" t="n">
-        <v>0.281738726563234</v>
+        <v>0.2539837934929332</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0007395936897103264</v>
+        <v>0.0004984693830162841</v>
       </c>
     </row>
     <row r="7">
@@ -670,16 +670,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.236197748722982</v>
+        <v>1.124056812882253</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7288560422463362</v>
+        <v>0.7214951454200002</v>
       </c>
       <c r="D7" t="n">
         <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>4.365849623933298e-11</v>
+        <v>1.078161315145711e-12</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -688,16 +688,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.03</v>
+        <v>0.46</v>
       </c>
       <c r="I7" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2478807125299555</v>
+        <v>0.2185549523378794</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001027395511544352</v>
+        <v>0.0006378377353142731</v>
       </c>
     </row>
     <row r="8">
@@ -707,16 +707,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.361197748722982</v>
+        <v>1.499056812882253</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7344115978018917</v>
+        <v>0.7492729231977779</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>5.105829261694656e-10</v>
+        <v>4.585004129440395e-10</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -725,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.18</v>
+        <v>0.52</v>
       </c>
       <c r="I8" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2818136094775284</v>
+        <v>0.3478734892518829</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001811099554080937</v>
+        <v>0.0054971657757336</v>
       </c>
     </row>
     <row r="9">
@@ -744,16 +744,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.111197748722982</v>
+        <v>1.249056812882253</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7010782644685584</v>
+        <v>0.7159395898644446</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>6.422456984154037e-11</v>
+        <v>1.335690200373731e-12</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -762,16 +762,16 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="I9" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2023403172168488</v>
+        <v>0.238732342067566</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002519693641578296</v>
+        <v>0.0006300842780911442</v>
       </c>
     </row>
     <row r="10">
@@ -781,16 +781,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.392447748722982</v>
+        <v>1.280306812882253</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7177449311352251</v>
+        <v>0.7326062565311112</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>6.172420778637344e-08</v>
+        <v>2.333584087359837e-12</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -799,16 +799,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.86</v>
+        <v>0.45</v>
       </c>
       <c r="I10" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2685295654585234</v>
+        <v>0.2623024864329415</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0008025551654513392</v>
+        <v>0.001519719568181139</v>
       </c>
     </row>
     <row r="11">
@@ -818,16 +818,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.142447748722982</v>
+        <v>1.030306812882253</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7418190052092991</v>
+        <v>0.7400136639385186</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>3.578675958444398e-11</v>
+        <v>9.889398414203354e-08</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.21</v>
+        <v>0.43</v>
       </c>
       <c r="I11" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2430005811483338</v>
+        <v>0.2166337408855667</v>
       </c>
       <c r="K11" t="n">
-        <v>0.00169209162879817</v>
+        <v>0.001328397514324405</v>
       </c>
     </row>
     <row r="12">
@@ -855,16 +855,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.267447748722982</v>
+        <v>1.405306812882253</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7084856718759658</v>
+        <v>0.7066803306051853</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>1.258302725374541e-11</v>
+        <v>9.087606575706682e-08</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.93</v>
+        <v>0.63</v>
       </c>
       <c r="I12" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2362711855851884</v>
+        <v>0.2613677819493262</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0004144491970087504</v>
+        <v>0.0005697336123063629</v>
       </c>
     </row>
     <row r="13">
@@ -892,16 +892,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.017447748722982</v>
+        <v>1.155306812882253</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7251523385426324</v>
+        <v>0.723346997271852</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>4.024883738259246e-11</v>
+        <v>1.444984017304412e-11</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -910,16 +910,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="I13" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1995979972490974</v>
+        <v>0.2263582943203019</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0005345077331993303</v>
+        <v>0.0007383703810422753</v>
       </c>
     </row>
     <row r="14">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.454947748722982</v>
+        <v>1.342806812882253</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7473745607648546</v>
+        <v>0.7344581083829631</v>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>9.325052178495847e-12</v>
+        <v>3.490191227172934e-10</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.5</v>
+        <v>0.45</v>
       </c>
       <c r="I14" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3286118238073024</v>
+        <v>0.2786080999944175</v>
       </c>
       <c r="K14" t="n">
-        <v>0.004305417599793108</v>
+        <v>0.00190743335641726</v>
       </c>
     </row>
     <row r="15">
@@ -966,16 +966,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.204947748722982</v>
+        <v>1.092806812882253</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7140412274315213</v>
+        <v>0.7011247750496298</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>8.74556529950717e-12</v>
+        <v>2.357180183443144e-11</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9</v>
+        <v>0.37</v>
       </c>
       <c r="I15" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2283414520042106</v>
+        <v>0.1991864610192375</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0004646719313631618</v>
+        <v>0.0002667237146589032</v>
       </c>
     </row>
     <row r="16">
@@ -1003,16 +1003,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.329947748722982</v>
+        <v>1.467806812882253</v>
       </c>
       <c r="C16" t="n">
-        <v>0.730707894098188</v>
+        <v>0.7177914417162964</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>8.67771023331348e-12</v>
+        <v>2.345028773946227e-09</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1021,53 +1021,2236 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.25</v>
+        <v>0.39</v>
       </c>
       <c r="I16" t="n">
-        <v>6417</v>
+        <v>4088</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2699652234896316</v>
+        <v>0.2840891296305317</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001387377046333409</v>
+        <v>0.001061646554506756</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>test_fom</t>
+          <t>train_fom</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.439248367641834</v>
+        <v>1.217806812882253</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7222272034124581</v>
+        <v>0.7455692194940743</v>
       </c>
       <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.745820720257737e-12</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.2676026593886039</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.002637173506233191</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>train_fom</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.295931812882253</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7122358861607408</v>
+      </c>
+      <c r="D18" t="n">
         <v>7</v>
       </c>
-      <c r="E17" t="n">
-        <v>2.371239355667196e-10</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>15</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6417</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.2828722585751314</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.001116916025150518</v>
+      <c r="E18" t="n">
+        <v>3.313736548017335e-13</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.2448488695938917</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0005856135524250012</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>train_fom</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.045931812882253</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7289025528274076</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.999227179615207e-11</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.2089029605175566</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0007767563839335789</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>train_fom</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.420931812882253</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7418655157903705</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.421405142500838e-09</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3096357029959409</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.00327615793926919</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>train_fom</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.170931812882253</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7085321824570372</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.385864671951264e-09</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.2182093392567229</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.000401411379417565</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>train_fom</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.358431812882253</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7251988491237038</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.588472546711467e-08</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.2699216201568814</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.001223904823846465</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>train_fom</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.108431812882253</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.736309960234815</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.462020199087613e-08</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.2294696219157656</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.00128580815803721</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>train_fom</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.483431812882253</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7029766269014817</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.551533041381349e-07</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.2731801239849058</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0005660483766140251</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>train_fom</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.233431812882253</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7196432935681483</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8.417255025892125e-12</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.2388070402378225</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0007246144900028631</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>train_fom</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.264681812882253</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7474210713459261</v>
+      </c>
+      <c r="D26" t="n">
+        <v>9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.202151638725424e-09</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2824614059640023</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.003188239574073309</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.052983559316302</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7048983872368323</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6.774698667802253e-11</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1938900817429089</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0002849292476150862</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.427983559316302</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.721565053903499</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.274976758797884e-08</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.2801701652379145</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.001177269713104908</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.177983559316302</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.7407008563726348</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.469187858599583e-10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>25</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.2505328104712617</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.001877636203087111</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.365483559316302</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7073675230393014</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6.363787534264958e-08</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>25</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.25432302105907</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0005434798113189516</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.115483559316302</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.7240341897059681</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6.808161740640726e-12</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>25</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.218914325483908</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0007053072066118844</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.490483559316302</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7462564119281904</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.870883404469585e-08</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>25</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.3373120620426037</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.004669420663417099</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.240483559316302</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.712923078594857</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8.884668825644901e-08</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>25</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.2346530550247067</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0005440014982011389</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.263921059316302</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.7295897452615236</v>
+      </c>
+      <c r="D34" t="n">
+        <v>7</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.146764289929856e-08</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>25</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.2550897808619469</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.001255765021259752</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.013921059316302</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.7351453008170792</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.904202265041982e-09</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>25</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.2079283301437263</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0009949255926540324</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.388921059316302</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.7018119674837459</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7.84352803729954e-09</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>25</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.254517350245264</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0004559967696455679</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1.138921059316302</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7184786341504126</v>
+      </c>
+      <c r="D37" t="n">
+        <v>7</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.114579483607087e-13</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>25</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.2191103838201956</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0005715673795986418</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.326421059316302</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.7425527082244866</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.545166726833836e-11</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>25</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.2881513469063736</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.002809329614386697</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1.076421059316302</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.7092193748911533</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>8.693150444466629e-10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>25</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.2007741275716554</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0003479035051463511</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1.451421059316302</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.72588604155782</v>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.503475893113375e-10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>25</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.2904093972086702</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.001536865416311402</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1.201421059316302</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.7481082637800422</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6.370149192996005e-11</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>25</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.2682218885275375</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.00290984420111762</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1.295171059316302</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.7147749304467088</v>
+      </c>
+      <c r="D42" t="n">
+        <v>7</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.82217379005424e-12</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>25</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.2468014725285104</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0006542863467844254</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1.045171059316302</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.7314415971133755</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.728319688676508e-10</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>25</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.2110255569483927</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0008802593257535782</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.420171059316302</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.7369971526689311</v>
+      </c>
+      <c r="D44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.54706280323116e-07</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>25</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.3002225567731278</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.002546813884109827</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1.170171059316302</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.7036638193355977</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.244446032659508e-10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>25</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.214965864941563</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.0003330118893300031</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1.357671059316302</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.7203304860022643</v>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6.717142135402041e-10</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>25</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.2644369930830192</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0009601659806953303</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.107671059316302</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.7444045600763385</v>
+      </c>
+      <c r="D47" t="n">
+        <v>8</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.18449705663995e-09</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>25</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.2397557944377258</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.001974396318629189</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1.482671059316302</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.7110712267430052</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.071436286618534e-11</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>25</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.2801936290923048</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0007983372330398909</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1.232671059316302</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.7277378934096719</v>
+      </c>
+      <c r="D49" t="n">
+        <v>7</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.888676677251397e-09</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>25</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.2464702627895778</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.001072287648418346</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.279546059316302</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.749960115631894</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.514327639750336e-07</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>25</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.2916818383001315</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.003750394162734793</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1.029546059316302</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.7166267822985607</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.096241511795763e-08</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>25</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.1964591548987509</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.0004301639054567698</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1.404546059316302</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.7332934489652274</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.427521096682538e-09</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>25</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.2906654579132553</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.002040712793727482</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1.154546059316302</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.7388490045207829</v>
+      </c>
+      <c r="D53" t="n">
+        <v>8</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.031733987764071e-11</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>25</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.2427278696537037</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.001620848265314286</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.342046059316302</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.7055156711874496</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.766782733908323e-08</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>25</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.2484533948625486</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.0004836371758332918</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.092046059316302</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.7221823378541162</v>
+      </c>
+      <c r="D55" t="n">
+        <v>7</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.158782693056637e-12</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>25</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.2127189722223884</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.0006185685150349785</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1.467046059316302</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.7394662884714003</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8.411520071183365e-10</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>25</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I56" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.3159258819193694</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.003175175376037358</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1.217046059316302</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.7061329551380668</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.59618762165195e-09</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>25</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.2253131210281361</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.0003966341160020429</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1.310796059316302</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.7227996218047336</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.182013611513038e-09</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>25</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.2574437869578957</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.0009838485242608169</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1.060796059316302</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.7450218440269558</v>
+      </c>
+      <c r="D59" t="n">
+        <v>8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.829697600329601e-10</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>25</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.2298151469227952</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.001849398284420187</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1.435796059316302</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.7116885106936224</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7</v>
+      </c>
+      <c r="E60" t="n">
+        <v>7.796496409059953e-12</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>25</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.2715997790998211</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.0007491097383136138</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1.185796059316302</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.7283551773602891</v>
+      </c>
+      <c r="D61" t="n">
+        <v>7</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.00156663896579e-09</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>25</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.2373399309702046</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.001004264459011359</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1.373296059316302</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.7339107329158446</v>
+      </c>
+      <c r="D62" t="n">
+        <v>8</v>
+      </c>
+      <c r="E62" t="n">
+        <v>8.499282048201906e-10</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>25</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I62" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.2846153922198884</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.001975341858742823</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1.123296059316302</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.7005773995825113</v>
+      </c>
+      <c r="D63" t="n">
+        <v>6</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.058299530122788e-11</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>25</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.2044919177816435</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.0002757433577509362</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1.498296059316302</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.717244066249178</v>
+      </c>
+      <c r="D64" t="n">
+        <v>7</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.725981360450592e-09</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>25</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.2896709135872482</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.001099685590098292</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1.248296059316302</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.7413181403232521</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.636059623395323e-08</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>25</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.2676327929062358</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.002246243358041975</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1.252202309316302</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.7079848069899187</v>
+      </c>
+      <c r="D66" t="n">
+        <v>6</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.085097828542872e-08</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>25</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.2332372430850038</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.0004535094634908433</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1.002202309316302</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.7246514736565854</v>
+      </c>
+      <c r="D67" t="n">
+        <v>7</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.81204784926877e-12</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>25</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.1966470698257518</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0005815851273367591</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1.377202309316302</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.7468736958788076</v>
+      </c>
+      <c r="D68" t="n">
+        <v>10</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.112283640725062e-12</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>25</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.3095592511697822</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.003875607452615617</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1.127202309316302</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.7135403625454743</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.500413971491925e-08</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>25</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.2132507710152264</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.0004530084142152285</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1.314702309316302</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.730207029212141</v>
+      </c>
+      <c r="D70" t="n">
+        <v>8</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.01181268414307e-12</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>25</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.2666873125115684</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.001441951861372951</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1.064702309316302</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.7357625847676965</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.450229322112136e-08</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>25</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.2194307300290166</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.001141128958366222</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1.439702309316302</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.7024292514343632</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6</v>
+      </c>
+      <c r="E72" t="n">
+        <v>6.162326630419973e-08</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>25</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I72" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.2645052479408679</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.0005118131929042142</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1.189702309316302</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.7190959181010298</v>
+      </c>
+      <c r="D73" t="n">
+        <v>7</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.096920016215232e-09</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>25</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I73" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.2296311227927885</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.0006481003385006576</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1.283452309316302</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.7431699921751039</v>
+      </c>
+      <c r="D74" t="n">
+        <v>9</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.591397189840667e-12</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>25</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.2790224771219712</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.002658564940520239</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1.033452309316302</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.7098366588417706</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4.395291768196149e-10</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>25</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I75" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.1930249591730659</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.0003302064530908105</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>test_fom</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1.408452309316302</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.7265033255084372</v>
+      </c>
+      <c r="D76" t="n">
+        <v>8</v>
+      </c>
+      <c r="E76" t="n">
+        <v>6.242577742018792e-13</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>25</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4088</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.2820342314298377</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.001449932780997018</v>
       </c>
     </row>
   </sheetData>
